--- a/Test Cases_UI_API.xlsx
+++ b/Test Cases_UI_API.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB54779-6CDB-497D-9645-447B2F49C58A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC671BF-7359-4EC1-8FB6-48548C7B35B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-Auto" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Test Case</t>
   </si>
@@ -475,10 +475,8 @@
 comments -&gt; Get comments - verify Comments' name updated</t>
   </si>
   <si>
-    <t>6.Create 1 user -&gt; User create Posts -&gt; User create Comments under this post -&gt; User update</t>
-  </si>
-  <si>
-    <t>comments -&gt; User delete comments -&gt; Get comments under the post - verify Comments' 
+    <t>6.Create 1 user -&gt; User create Posts -&gt; User create Comments under this post -&gt; User update
+comments -&gt; User delete comments -&gt; Get comments under the post - verify Comments' 
 name does not exist</t>
   </si>
 </sst>
@@ -544,9 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +556,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -886,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -905,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F84DE0-D8E9-4412-973E-2DA6CDB4AB68}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,15 +931,15 @@
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -952,7 +950,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -961,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -970,7 +968,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -979,7 +977,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -990,7 +988,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -999,7 +997,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1006,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1015,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1026,54 +1024,48 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
